--- a/pred_ohlcv/54_21/2019-10-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 PPT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1227.1956</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2335.6956</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1906.1957</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7145.5008</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>59409.8331</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>62493.2902</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>63273.3662</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>76537.34520000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>89394.11680000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>78882.19610000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>72330.31640000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>72331.31640000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>81994.63770000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>81226.49460000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>97935.07640000002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>97909.07640000002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>98764.34700000002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>97727.86930000002</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>94875.37980000002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>92528.90470000003</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>79745.16780000002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>81245.96780000003</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>90113.15980000005</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>90300.87900000006</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>89223.40390000006</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>90009.44900000007</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>90010.44900000007</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>87862.32780000007</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>98216.1232000001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>98247.1232000001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>95904.1835000001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>92403.1537000001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>89004.6635000001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>88373.2757000001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 PPT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1227.1956</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1906.1957</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7145.5008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>59409.8331</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>62493.2902</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>63273.3662</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>76537.34520000001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>89394.11680000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>78882.19610000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>72330.31640000001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>72331.31640000001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>81994.63770000001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>81226.49460000001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>99097.8294</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>96667.39910000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>96659.39910000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>97935.07640000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>97909.07640000002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>98764.34700000002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>97727.86930000002</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>94875.37980000002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>93036.09090000002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>92528.90470000003</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>79745.16780000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>89073.44900000007</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>89004.6635000001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
